--- a/source-xlsx/14-04-2020.xlsx
+++ b/source-xlsx/14-04-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\covid19\source-xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115C74CE-2E78-48AB-BCB5-A5E818ED8E90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C1FDBD-3155-42EE-BD23-1D1C91476B8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>division</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Dhaka</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -530,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -898,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
@@ -909,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -920,7 +923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
@@ -931,7 +934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
         <v>36</v>
       </c>
@@ -942,7 +945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -953,7 +956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
         <v>41</v>
       </c>
@@ -964,7 +967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
@@ -975,7 +978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
         <v>41</v>
       </c>
@@ -986,7 +989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
         <v>45</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44" s="6" t="s">
         <v>47</v>
       </c>
@@ -1029,23 +1032,26 @@
       <c r="C44" s="4">
         <v>456</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:4">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:4">
       <c r="A48" s="3"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
